--- a/Data_science_outputs/500pop/avg_analysis/avg_analysis_4.xlsx
+++ b/Data_science_outputs/500pop/avg_analysis/avg_analysis_4.xlsx
@@ -493,16 +493,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>19528.09303895929</v>
+        <v>15307.85069382231</v>
       </c>
       <c r="C3" t="n">
         <v>11601.05999157409</v>
       </c>
       <c r="D3" t="n">
-        <v>4266.90880406583</v>
+        <v>833.5794467332574</v>
       </c>
       <c r="E3" t="n">
-        <v>3771.370835527008</v>
+        <v>2825.673217591321</v>
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
@@ -514,16 +514,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>6374.408613162954</v>
+        <v>6804.466629161197</v>
       </c>
       <c r="C4" t="n">
         <v>5803.768412384779</v>
       </c>
       <c r="D4" t="n">
-        <v>3475.552228201745</v>
+        <v>224.4594209241195</v>
       </c>
       <c r="E4" t="n">
-        <v>2062.52902646588</v>
+        <v>1361.059203808987</v>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
@@ -535,16 +535,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>6294.494657534244</v>
+        <v>5112.259786301379</v>
       </c>
       <c r="C5" t="n">
         <v>3628.646566666668</v>
       </c>
       <c r="D5" t="n">
-        <v>248.5076191780819</v>
+        <v>234.5908054794514</v>
       </c>
       <c r="E5" t="n">
-        <v>633.8763178082191</v>
+        <v>663.2953342465759</v>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
@@ -556,16 +556,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>15643.31489726028</v>
+        <v>9399.504675342459</v>
       </c>
       <c r="C6" t="n">
         <v>7183.558850000002</v>
       </c>
       <c r="D6" t="n">
-        <v>776.3553232876707</v>
+        <v>709.309699315068</v>
       </c>
       <c r="E6" t="n">
-        <v>1693.680319178083</v>
+        <v>1428.166626712329</v>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
@@ -577,16 +577,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17155.64400273974</v>
+        <v>14569.99556164384</v>
       </c>
       <c r="C7" t="n">
         <v>9710.84746666667</v>
       </c>
       <c r="D7" t="n">
-        <v>4148.614813698626</v>
+        <v>882.369920547945</v>
       </c>
       <c r="E7" t="n">
-        <v>3599.728843835613</v>
+        <v>2705.965230136986</v>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
@@ -598,16 +598,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>26927.54718424658</v>
+        <v>19731.90009657538</v>
       </c>
       <c r="C8" t="n">
         <v>15711.42285833338</v>
       </c>
       <c r="D8" t="n">
-        <v>7935.913096575345</v>
+        <v>972.9928547945178</v>
       </c>
       <c r="E8" t="n">
-        <v>6073.75732534246</v>
+        <v>4314.070471917806</v>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
@@ -619,16 +619,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>30015.40969589044</v>
+        <v>28230.24325753423</v>
       </c>
       <c r="C9" t="n">
         <v>23565.92070000002</v>
       </c>
       <c r="D9" t="n">
-        <v>8276.221682191792</v>
+        <v>1233.665660273973</v>
       </c>
       <c r="E9" t="n">
-        <v>6939.474739726022</v>
+        <v>5027.55367123287</v>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
@@ -644,7 +644,7 @@
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="n">
-        <v>28120453.97610138</v>
+        <v>22043304.99910413</v>
       </c>
       <c r="G10" t="inlineStr"/>
     </row>
@@ -662,7 +662,7 @@
         <v>16705526.38786669</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5883735486329275</v>
+        <v>0.7609558168867352</v>
       </c>
     </row>
     <row r="12">
@@ -676,10 +676,10 @@
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="n">
-        <v>6144348.677854798</v>
+        <v>1200354.403295889</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2185010484921997</v>
+        <v>0.05445437530101195</v>
       </c>
     </row>
     <row r="13">
@@ -693,10 +693,10 @@
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="n">
-        <v>5430774.003158901</v>
+        <v>4068969.433331504</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1931254028748729</v>
+        <v>0.1845898078122529</v>
       </c>
     </row>
   </sheetData>
